--- a/CETC/ExcelFile/allFaults.xlsx
+++ b/CETC/ExcelFile/allFaults.xlsx
@@ -16,161 +16,209 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+  <si>
+    <t>检测设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相机故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障10-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障10-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障11-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障11-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障11-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障12-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障12-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障1-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障1-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障1-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障3-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障5-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障5-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障5-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障6-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障7-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障7-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障7-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障8-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障8-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障9-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障9-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障9-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障使能标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出信号故障</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相机故障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电源故障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障10-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障10-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障11-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障11-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障11-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障12-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障12-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障1-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障1-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障1-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障1-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障2-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障3-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障3-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障3-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障4-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障4-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障5-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障5-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障5-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障6-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障6-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障7-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障7-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障7-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障8-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障8-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障9-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障9-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障9-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障使能标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出信号故障</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,8 +262,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -520,45 +569,45 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
     <col min="4" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -568,14 +617,14 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -585,14 +634,14 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -602,14 +651,14 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -619,14 +668,14 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -636,14 +685,14 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -653,14 +702,14 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -670,14 +719,14 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>2</v>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -687,14 +736,14 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>2</v>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -704,14 +753,14 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>3</v>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -721,14 +770,14 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>3</v>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -738,14 +787,14 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>3</v>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -755,14 +804,14 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>4</v>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -772,14 +821,14 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>4</v>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -789,14 +838,14 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>5</v>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -806,14 +855,14 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>5</v>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -823,14 +872,14 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>5</v>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -840,14 +889,14 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>6</v>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -857,14 +906,14 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>6</v>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -874,14 +923,14 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>7</v>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -891,14 +940,14 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>7</v>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -908,14 +957,14 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>7</v>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -925,14 +974,14 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>8</v>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -942,14 +991,14 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>8</v>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -959,14 +1008,14 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>9</v>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -976,14 +1025,14 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>9</v>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -993,14 +1042,14 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>9</v>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1010,14 +1059,14 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>10</v>
+      <c r="B29" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1027,14 +1076,14 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>10</v>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1044,14 +1093,14 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>11</v>
+      <c r="B31" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1061,14 +1110,14 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>11</v>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1078,14 +1127,14 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>11</v>
+      <c r="B33" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1095,14 +1144,14 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>12</v>
+      <c r="B34" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1112,14 +1161,14 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>12</v>
+      <c r="B35" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>1</v>

--- a/CETC/ExcelFile/allFaults.xlsx
+++ b/CETC/ExcelFile/allFaults.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="106">
   <si>
     <t>DeviceNO</t>
   </si>
@@ -27,9 +27,6 @@
     <t>FaultName</t>
   </si>
   <si>
-    <t>FaultEnable</t>
-  </si>
-  <si>
     <t>相机故障</t>
   </si>
   <si>
@@ -60,121 +57,352 @@
     <t>故障003-1</t>
   </si>
   <si>
-    <t>故障003-2</t>
-  </si>
-  <si>
-    <t>故障003-3</t>
+    <t>故障005-1</t>
+  </si>
+  <si>
+    <t>故障009-1</t>
+  </si>
+  <si>
+    <t>故障011-1</t>
+  </si>
+  <si>
+    <t>故障011-2</t>
+  </si>
+  <si>
+    <t>故障011-3</t>
+  </si>
+  <si>
+    <t>故障012-1</t>
+  </si>
+  <si>
+    <t>故障012-2</t>
+  </si>
+  <si>
+    <t>故障013-1</t>
+  </si>
+  <si>
+    <t>故障013-2</t>
+  </si>
+  <si>
+    <t>故障101-1</t>
+  </si>
+  <si>
+    <t>故障101-2</t>
+  </si>
+  <si>
+    <t>故障102-1</t>
+  </si>
+  <si>
+    <t>故障102-2</t>
+  </si>
+  <si>
+    <t>故障102-3</t>
+  </si>
+  <si>
+    <t>故障103-1</t>
+  </si>
+  <si>
+    <t>故障103-2</t>
+  </si>
+  <si>
+    <t>故障104-1</t>
+  </si>
+  <si>
+    <t>故障104-2</t>
+  </si>
+  <si>
+    <t>故障104-3</t>
+  </si>
+  <si>
+    <t>故障105-1</t>
+  </si>
+  <si>
+    <t>故障105-2</t>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>故障004-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>故障004-2</t>
-  </si>
-  <si>
-    <t>故障005-1</t>
-  </si>
-  <si>
-    <t>故障005-2</t>
-  </si>
-  <si>
-    <t>故障005-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障004-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障004-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障006-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障006-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>故障006-1</t>
-  </si>
-  <si>
-    <t>故障006-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>故障007-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>故障007-2</t>
-  </si>
-  <si>
-    <t>故障007-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>故障008-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>故障008-2</t>
-  </si>
-  <si>
-    <t>故障009-1</t>
-  </si>
-  <si>
-    <t>故障009-2</t>
-  </si>
-  <si>
-    <t>故障009-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障008-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障008-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>故障010-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>故障010-2</t>
-  </si>
-  <si>
-    <t>故障011-1</t>
-  </si>
-  <si>
-    <t>故障011-2</t>
-  </si>
-  <si>
-    <t>故障011-3</t>
-  </si>
-  <si>
-    <t>故障012-1</t>
-  </si>
-  <si>
-    <t>故障012-2</t>
-  </si>
-  <si>
-    <t>故障013-1</t>
-  </si>
-  <si>
-    <t>故障013-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障010-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障010-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>故障013-3</t>
-  </si>
-  <si>
-    <t>故障101-1</t>
-  </si>
-  <si>
-    <t>故障101-2</t>
-  </si>
-  <si>
-    <t>故障102-1</t>
-  </si>
-  <si>
-    <t>故障102-2</t>
-  </si>
-  <si>
-    <t>故障102-3</t>
-  </si>
-  <si>
-    <t>故障103-1</t>
-  </si>
-  <si>
-    <t>故障103-2</t>
-  </si>
-  <si>
-    <t>故障104-1</t>
-  </si>
-  <si>
-    <t>故障104-2</t>
-  </si>
-  <si>
-    <t>故障104-3</t>
-  </si>
-  <si>
-    <t>故障105-1</t>
-  </si>
-  <si>
-    <t>故障105-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障014-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障014-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障015-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障016-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障016-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障017-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障017-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障018-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障018-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -217,8 +445,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -520,718 +749,844 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>9</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>9</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>10</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>10</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>11</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>11</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>12</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>13</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>13</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>13</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>101</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>101</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>102</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>102</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>102</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>103</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>104</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>104</v>
-      </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>105</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>105</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="D50">
-        <v>1</v>
+      <c r="B53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
